--- a/docs/200.practice/150.demo/files/nop-demo.orm.v2.xlsx
+++ b/docs/200.practice/150.demo/files/nop-demo.orm.v2.xlsx
@@ -481,26 +481,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,7 +504,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -527,8 +550,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,30 +567,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,14 +581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,9 +594,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,23 +619,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,25 +670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +694,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,19 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +748,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,13 +814,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,79 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,45 +973,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1050,8 +1015,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,156 +1035,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="7">
-        <v>901</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>35</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A3" s="9">
-        <v>902</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>37</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7">
-        <v>903</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>38</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A5" s="9">
-        <v>904</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>40</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="11">
-        <v>905</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>41</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:7">
       <c r="A7" s="9">
-        <v>906</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>43</v>
@@ -1959,7 +1959,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A11" s="7">
-        <v>901</v>
+        <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A12" s="9">
-        <v>902</v>
+        <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>80</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A13" s="7">
-        <v>903</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A14" s="9">
-        <v>904</v>
+        <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>80</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="11">
-        <v>905</v>
+        <v>8</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A16" s="9">
-        <v>906</v>
+        <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>80</v>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A11" s="7">
-        <v>901</v>
+        <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A12" s="9">
-        <v>902</v>
+        <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>80</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A13" s="7">
-        <v>903</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A14" s="9">
-        <v>904</v>
+        <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>80</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="11">
-        <v>905</v>
+        <v>8</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A16" s="9">
-        <v>906</v>
+        <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>80</v>
@@ -3653,7 +3653,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A10" s="7">
-        <v>901</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A11" s="9">
-        <v>902</v>
+        <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>80</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A12" s="7">
-        <v>903</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A13" s="9">
-        <v>904</v>
+        <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>80</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:16">
       <c r="A14" s="11">
-        <v>905</v>
+        <v>7</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A15" s="9">
-        <v>906</v>
+        <v>8</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>80</v>
@@ -4186,7 +4186,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:F35"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A14" s="7">
-        <v>901</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A15" s="9">
-        <v>902</v>
+        <v>8</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>80</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" spans="1:16">
       <c r="A16" s="7">
-        <v>903</v>
+        <v>9</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A17" s="9">
-        <v>904</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>80</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:16">
       <c r="A18" s="11">
-        <v>905</v>
+        <v>11</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="16.5" spans="1:16">
       <c r="A19" s="9">
-        <v>906</v>
+        <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>80</v>

--- a/docs/200.practice/150.demo/files/nop-demo.orm.v2.xlsx
+++ b/docs/200.practice/150.demo/files/nop-demo.orm.v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="28503" windowHeight="12425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <t>seq</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>OID</t>
   </si>
   <si>
     <t>X</t>
@@ -357,7 +357,7 @@
     <t>parentId</t>
   </si>
   <si>
-    <t>id</t>
+    <t>oid</t>
   </si>
   <si>
     <t>org_unit_region</t>
@@ -461,8 +461,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -481,14 +481,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -496,8 +488,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,45 +573,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -558,8 +580,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,14 +604,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,32 +617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,7 +670,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,19 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,133 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,11 +973,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,26 +1021,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,28 +1056,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,151 +1075,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1656,15 +1656,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10.1260504201681" defaultRowHeight="14.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.8416666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44.1583333333333" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.125" style="2"/>
+    <col min="1" max="1" width="24.8403361344538" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.4033613445378" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.1596638655462" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.1260504201681" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:3">
+    <row r="1" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="49.5" spans="1:3">
+    <row r="2" s="2" customFormat="1" ht="44.55" spans="1:3">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="66" spans="1:3">
+    <row r="3" s="2" customFormat="1" ht="59.4" spans="1:3">
       <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="33" spans="1:3">
+    <row r="4" s="2" customFormat="1" ht="29.7" spans="1:3">
       <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
+    <row r="5" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
+    <row r="6" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A6" s="34" t="s">
         <v>15</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
+    <row r="7" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
+    <row r="8" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
+    <row r="9" s="2" customFormat="1" ht="14.85" spans="1:3">
       <c r="A9" s="34" t="s">
         <v>22</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="33" spans="1:3">
+    <row r="10" s="2" customFormat="1" ht="29.7" spans="1:3">
       <c r="A10" s="34" t="s">
         <v>25</v>
       </c>
@@ -1819,12 +1819,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1260504201681" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25210084033614" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6218487394958" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1868,7 +1868,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="14.8" spans="1:7">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="14.8" spans="1:7">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:7">
+    <row r="7" s="1" customFormat="1" ht="14.8" spans="1:7">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1962,13 +1962,13 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3781512605042" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8739495798319" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6218487394958" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -2154,7 +2154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="11" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="12" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="26"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="13" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="14" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A14" s="9">
         <v>7</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="27"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="16" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A16" s="9">
         <v>9</v>
       </c>
@@ -2806,16 +2806,16 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3781512605042" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8739495798319" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6218487394958" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -3001,7 +3001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="11" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="12" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A12" s="9">
         <v>5</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="26"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="13" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="14" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A14" s="9">
         <v>7</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="27"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="16" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A16" s="9">
         <v>9</v>
       </c>
@@ -3653,16 +3653,16 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3781512605042" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8739495798319" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6218487394958" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -3848,7 +3848,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -3946,7 +3946,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="11" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A11" s="9">
         <v>4</v>
       </c>
@@ -3980,7 +3980,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="26"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="12" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="13" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A13" s="9">
         <v>6</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="27"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="15" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A15" s="9">
         <v>8</v>
       </c>
@@ -4186,16 +4186,16 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.3781512605042" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8739495798319" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.2521008403361" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -4381,7 +4381,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="8" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="10" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="11" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="12" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="13" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="14" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="15" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A15" s="9">
         <v>8</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="26"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="16" s="1" customFormat="1" ht="14.8" spans="1:16">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="17" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A17" s="9">
         <v>10</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="27"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="19" s="2" customFormat="1" ht="14.8" spans="1:16">
       <c r="A19" s="9">
         <v>12</v>
       </c>
